--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3671DFE7-6BDE-41AB-B997-50BDB8383091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17A6ED-3F7E-4FF0-A6C0-0DA4C69E026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
+    <sheet name="Bảng Điểm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -84,17 +85,65 @@
     <t>Nguyễn Thiết Duy Đan</t>
   </si>
   <si>
-    <t>Đánh giá quá trình làm báo cáo</t>
-  </si>
-  <si>
     <t>Đánh giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảng kế hoạch </t>
+  </si>
+  <si>
+    <t>Job 1</t>
+  </si>
+  <si>
+    <t>Job 2</t>
+  </si>
+  <si>
+    <t>Job 3</t>
+  </si>
+  <si>
+    <t>Job 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khảo sát hệ thống </t>
+  </si>
+  <si>
+    <t>15/09/2023 - 19/9/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023 - 18/9/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023 - 17/9/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023 - 20/9/2023</t>
+  </si>
+  <si>
+    <t>Chức năng và nhiệm vụ của từng bộ phận</t>
+  </si>
+  <si>
+    <t>Tổ chức bộ máy hoạt động</t>
+  </si>
+  <si>
+    <t>Lịch sử hình thành và phát triển</t>
+  </si>
+  <si>
+    <t>Đánh giá hiện trạng</t>
+  </si>
+  <si>
+    <t>Khảo sát hệ thống</t>
+  </si>
+  <si>
+    <t>Mục tiêu phát triển hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,33 +154,65 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13.95"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.95"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,32 +285,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,7 +372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -277,11 +386,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Bảng</a:t>
+              <a:t>Đánh</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> đánh giá</a:t>
+              <a:t> Giá Điểm</a:t>
             </a:r>
             <a:endParaRPr lang="vi-VN" b="1"/>
           </a:p>
@@ -300,7 +409,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -323,10 +432,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2952979209092228"/>
-          <c:y val="0.19027763763740513"/>
-          <c:w val="0.67451633300882174"/>
-          <c:h val="0.72547098279381739"/>
+          <c:x val="0.20836098246190121"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.76661729729483208"/>
+          <c:h val="0.72088764946048411"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -348,7 +457,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>'Bảng Điểm'!$B$3:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -389,7 +498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$13</c:f>
+              <c:f>'Bảng Điểm'!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -431,7 +540,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27E1-4252-81EF-969622ED9795}"/>
+              <c16:uniqueId val="{00000000-6E56-43BC-A866-32FDDF9D2331}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -444,11 +553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1384119855"/>
-        <c:axId val="1384120687"/>
+        <c:axId val="335931616"/>
+        <c:axId val="335929536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1384119855"/>
+        <c:axId val="335931616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +585,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -491,7 +600,7 @@
             <a:endParaRPr lang="vi-VN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1384120687"/>
+        <c:crossAx val="335929536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1384120687"/>
+        <c:axId val="335929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -551,7 +660,7 @@
             <a:endParaRPr lang="vi-VN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1384119855"/>
+        <c:crossAx val="335931616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1156,23 +1265,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419645</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56061</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>7075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE8BD92-3656-656D-1162-EA7844E19C82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF6C7FB-D82C-5181-46EF-CB767B01F4F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,288 +1599,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.3984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>63131214</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>63135106</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>63131606</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>63135096</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>63131263</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>63131821</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8">
+        <v>63135054</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8">
+        <v>63132195</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <v>63131717</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>63135429</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>63133615</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="11">
         <v>63131214</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="e">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="e">
         <f>AVERAGE(D3:G3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>63135106</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="e">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="e">
         <f t="shared" ref="H4:H13" si="0">AVERAGE(D4:G4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="11">
         <v>63131606</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="e">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>63135096</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="e">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>63131263</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="e">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>63131821</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="e">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>63135054</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="e">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>63132195</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="e">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>63131717</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="e">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11">
         <v>63135429</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="e">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11">
         <v>63133615</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="e">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17A6ED-3F7E-4FF0-A6C0-0DA4C69E026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB96FAD-615A-432D-A36A-0E1F5111DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Mục tiêu phát triển hệ thống</t>
+  </si>
+  <si>
+    <t>Bảng Điểm Quá Trình</t>
   </si>
 </sst>
 </file>
@@ -287,12 +290,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,7 +315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,6 +330,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,328 +1604,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.3984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>63131214</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="13"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>63135106</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>63131606</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>63135096</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>63131263</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>63131821</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="13"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>63135054</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>63132195</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>63131717</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="13"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>63135429</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="13"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>63133615</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="13"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1938,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1953,266 +1956,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>63131214</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="e">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="e">
         <f>AVERAGE(D3:G3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>63135106</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="e">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="e">
         <f t="shared" ref="H4:H13" si="0">AVERAGE(D4:G4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>63131606</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="e">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>63135096</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="e">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>63131263</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="e">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>63131821</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="e">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>63135054</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="e">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>63132195</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="e">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>63131717</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="e">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>63135429</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="e">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>63133615</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="e">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB96FAD-615A-432D-A36A-0E1F5111DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E06BD-7A2D-446B-BF3C-513DF2281099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>Bảng Điểm Quá Trình</t>
+  </si>
+  <si>
+    <t>Xác định yêu cầu</t>
+  </si>
+  <si>
+    <t>Sơ đồ</t>
+  </si>
+  <si>
+    <t>Mô tả nghiệp vụ</t>
+  </si>
+  <si>
+    <t>28/09/2023 - 5/10/2023</t>
+  </si>
+  <si>
+    <t>28/09/2023 - 1/10/2023</t>
+  </si>
+  <si>
+    <t>28/09/2023 - 3/10/2023</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -284,11 +302,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +384,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,37 +567,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1615,8 +1676,8 @@
     <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.3984375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -1690,8 +1751,12 @@
       <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="11"/>
       <c r="J3" s="6"/>
@@ -1713,8 +1778,12 @@
       <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="12"/>
       <c r="J4" s="7"/>
@@ -1736,8 +1805,12 @@
       <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="11"/>
       <c r="J5" s="6"/>
@@ -1759,8 +1832,12 @@
       <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11"/>
       <c r="J6" s="6"/>
@@ -1782,8 +1859,12 @@
       <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="11"/>
       <c r="J7" s="6"/>
@@ -1805,8 +1886,12 @@
       <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11"/>
       <c r="J8" s="6"/>
@@ -1828,8 +1913,12 @@
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="11"/>
       <c r="J9" s="6"/>
@@ -1851,8 +1940,12 @@
       <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="11"/>
       <c r="J10" s="6"/>
@@ -1874,8 +1967,12 @@
       <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="11"/>
       <c r="J11" s="6"/>
@@ -1897,8 +1994,12 @@
       <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="11"/>
       <c r="J12" s="6"/>
@@ -1920,8 +2021,12 @@
       <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="11"/>
       <c r="J13" s="6"/>
@@ -1942,7 +2047,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1968,7 +2073,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2007,17 +2112,19 @@
       <c r="C3" s="9">
         <v>63131214</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="21">
+        <v>9</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="e">
+      <c r="H3" s="4">
         <f>AVERAGE(D3:G3)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2027,17 +2134,19 @@
       <c r="C4" s="9">
         <v>63135106</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="22">
+        <v>10</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="e">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H13" si="0">AVERAGE(D4:G4)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2047,17 +2156,19 @@
       <c r="C5" s="9">
         <v>63131606</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="22">
+        <v>10</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="e">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2067,17 +2178,19 @@
       <c r="C6" s="9">
         <v>63135096</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="22">
+        <v>10</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="e">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2087,17 +2200,19 @@
       <c r="C7" s="9">
         <v>63131263</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="22">
+        <v>10</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="e">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2107,17 +2222,19 @@
       <c r="C8" s="9">
         <v>63131821</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="22">
+        <v>9</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="e">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2127,17 +2244,19 @@
       <c r="C9" s="9">
         <v>63135054</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="22">
+        <v>10</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="e">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2147,17 +2266,19 @@
       <c r="C10" s="9">
         <v>63132195</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="22">
+        <v>10</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="e">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2167,17 +2288,19 @@
       <c r="C11" s="9">
         <v>63131717</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="22">
+        <v>10</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="e">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2187,17 +2310,19 @@
       <c r="C12" s="9">
         <v>63135429</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="22">
+        <v>10</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="e">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2207,13 +2332,15 @@
       <c r="C13" s="9">
         <v>63133615</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="22">
+        <v>10</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="e">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -2222,6 +2349,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E06BD-7A2D-446B-BF3C-513DF2281099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBD83D-6E90-45F9-9E88-6C975E8C79B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Bảng Điểm Quá Trình</t>
   </si>
   <si>
-    <t>Xác định yêu cầu</t>
-  </si>
-  <si>
     <t>Sơ đồ</t>
   </si>
   <si>
@@ -158,6 +155,12 @@
   </si>
   <si>
     <t>28/09/2023 - 3/10/2023</t>
+  </si>
+  <si>
+    <t>Sơ đồ/Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xác định yêu cầu/Nêu phương pháp </t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,24 +382,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1676,8 +1675,8 @@
     <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.3984375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.296875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -1686,19 +1685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1751,11 +1750,11 @@
       <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>43</v>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="11"/>
@@ -1778,11 +1777,11 @@
       <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>43</v>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="12"/>
@@ -1805,11 +1804,11 @@
       <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>43</v>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="11"/>
@@ -1832,11 +1831,11 @@
       <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>41</v>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11"/>
@@ -1859,11 +1858,11 @@
       <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>42</v>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="11"/>
@@ -1886,11 +1885,11 @@
       <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>41</v>
+      <c r="F8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11"/>
@@ -1913,11 +1912,11 @@
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>42</v>
+      <c r="F9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="11"/>
@@ -1940,11 +1939,11 @@
       <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>41</v>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="11"/>
@@ -1967,11 +1966,11 @@
       <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>43</v>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="11"/>
@@ -1994,11 +1993,11 @@
       <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>42</v>
+      <c r="F12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="11"/>
@@ -2021,11 +2020,11 @@
       <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>41</v>
+      <c r="F13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="11"/>
@@ -2046,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2061,17 +2060,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2112,7 +2111,7 @@
       <c r="C3" s="9">
         <v>63131214</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>9</v>
       </c>
       <c r="E3" s="4"/>
@@ -2134,7 +2133,7 @@
       <c r="C4" s="9">
         <v>63135106</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
@@ -2156,7 +2155,7 @@
       <c r="C5" s="9">
         <v>63131606</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
@@ -2178,7 +2177,7 @@
       <c r="C6" s="9">
         <v>63135096</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>10</v>
       </c>
       <c r="E6" s="4"/>
@@ -2200,7 +2199,7 @@
       <c r="C7" s="9">
         <v>63131263</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
@@ -2222,7 +2221,7 @@
       <c r="C8" s="9">
         <v>63131821</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
@@ -2244,7 +2243,7 @@
       <c r="C9" s="9">
         <v>63135054</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
@@ -2266,7 +2265,7 @@
       <c r="C10" s="9">
         <v>63132195</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>10</v>
       </c>
       <c r="E10" s="4"/>
@@ -2288,7 +2287,7 @@
       <c r="C11" s="9">
         <v>63131717</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
@@ -2310,7 +2309,7 @@
       <c r="C12" s="9">
         <v>63135429</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>10</v>
       </c>
       <c r="E12" s="4"/>
@@ -2332,7 +2331,7 @@
       <c r="C13" s="9">
         <v>63133615</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>10</v>
       </c>
       <c r="E13" s="4"/>

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CBD83D-6E90-45F9-9E88-6C975E8C79B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3466948B-F18E-4C40-8C75-0034443E3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>42</v>

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3466948B-F18E-4C40-8C75-0034443E3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BD700-160C-4C8B-BD97-657EA590D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>28/09/2023 - 5/10/2023</t>
   </si>
   <si>
-    <t>28/09/2023 - 1/10/2023</t>
-  </si>
-  <si>
     <t>28/09/2023 - 3/10/2023</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Xác định yêu cầu/Nêu phương pháp </t>
+  </si>
+  <si>
+    <t>28/09/2023 - 7/10/2023</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="11"/>
@@ -1781,7 +1781,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="12"/>
@@ -1808,7 +1808,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="11"/>
@@ -1835,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11"/>
@@ -1859,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>41</v>
@@ -1889,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11"/>
@@ -1913,7 +1913,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>41</v>
@@ -1943,7 +1943,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="11"/>
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="11"/>
@@ -1994,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>41</v>
@@ -2021,10 +2021,10 @@
         <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="11"/>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BD700-160C-4C8B-BD97-657EA590D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09503E-2D6B-425E-8799-38D39E8006E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -160,14 +160,14 @@
     <t xml:space="preserve">Xác định yêu cầu/Nêu phương pháp </t>
   </si>
   <si>
-    <t>28/09/2023 - 7/10/2023</t>
+    <t>28/09/2023 - 8/10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +235,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,9 +395,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -396,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1685,21 +1701,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1753,7 +1769,7 @@
       <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="6"/>
@@ -1761,7 +1777,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1780,7 +1796,7 @@
       <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="7"/>
@@ -1788,7 +1804,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1807,7 +1823,7 @@
       <c r="F5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="6"/>
@@ -1815,7 +1831,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1834,7 +1850,7 @@
       <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="6"/>
@@ -1842,7 +1858,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1861,7 +1877,7 @@
       <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="6"/>
@@ -1869,7 +1885,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1888,7 +1904,7 @@
       <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="6"/>
@@ -1896,7 +1912,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1915,7 +1931,7 @@
       <c r="F9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="6"/>
@@ -1923,7 +1939,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1942,7 +1958,7 @@
       <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="6"/>
@@ -1950,7 +1966,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1969,7 +1985,7 @@
       <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="6"/>
@@ -1977,7 +1993,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1996,7 +2012,7 @@
       <c r="F12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="6"/>
@@ -2004,7 +2020,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2023,7 +2039,7 @@
       <c r="F13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="6"/>
@@ -2045,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2060,17 +2076,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2111,7 +2127,7 @@
       <c r="C3" s="9">
         <v>63131214</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>9</v>
       </c>
       <c r="E3" s="4"/>
@@ -2133,7 +2149,7 @@
       <c r="C4" s="9">
         <v>63135106</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
@@ -2155,7 +2171,7 @@
       <c r="C5" s="9">
         <v>63131606</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
@@ -2177,7 +2193,7 @@
       <c r="C6" s="9">
         <v>63135096</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>10</v>
       </c>
       <c r="E6" s="4"/>
@@ -2199,7 +2215,7 @@
       <c r="C7" s="9">
         <v>63131263</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
@@ -2221,7 +2237,7 @@
       <c r="C8" s="9">
         <v>63131821</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
@@ -2243,7 +2259,7 @@
       <c r="C9" s="9">
         <v>63135054</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
@@ -2265,7 +2281,7 @@
       <c r="C10" s="9">
         <v>63132195</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>10</v>
       </c>
       <c r="E10" s="4"/>
@@ -2287,7 +2303,7 @@
       <c r="C11" s="9">
         <v>63131717</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
@@ -2309,7 +2325,7 @@
       <c r="C12" s="9">
         <v>63135429</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>10</v>
       </c>
       <c r="E12" s="4"/>
@@ -2331,7 +2347,7 @@
       <c r="C13" s="9">
         <v>63133615</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>10</v>
       </c>
       <c r="E13" s="4"/>

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09503E-2D6B-425E-8799-38D39E8006E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C7518-8C30-4DD4-B9DA-6BE19721D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -161,13 +161,58 @@
   </si>
   <si>
     <t>28/09/2023 - 8/10/2023</t>
+  </si>
+  <si>
+    <t>Xuất Kho/Tạo Đơn Đặt Hàng</t>
+  </si>
+  <si>
+    <t>Nhập Hàng</t>
+  </si>
+  <si>
+    <t>Quản Lý Kho Hàng</t>
+  </si>
+  <si>
+    <t>Xuất Kho/Tạo đơn hàng</t>
+  </si>
+  <si>
+    <t>Thiết Kế Giao Diện</t>
+  </si>
+  <si>
+    <t>Thiết Kế CSDL</t>
+  </si>
+  <si>
+    <t>Làm Powerpoint/Làm Sơ Đồ ERD</t>
+  </si>
+  <si>
+    <t>Làm Sơ Đồ ERD</t>
+  </si>
+  <si>
+    <t>Thiết Kế CSDL/Làm Sơ Đồ ERD</t>
+  </si>
+  <si>
+    <t>15/10/2023 - 20/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023 - 22/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023 - 17/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023 - 28/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023 - 25/10/2023</t>
+  </si>
+  <si>
+    <t>Làm Powerpoint/Đặc tả ERD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +254,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.95"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -352,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,9 +408,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -383,10 +418,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,17 +433,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,37 +614,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1689,14 +1721,14 @@
     <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.59765625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -1760,22 +1792,30 @@
       <c r="C3" s="6">
         <v>63131214</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="11"/>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1787,22 +1827,30 @@
       <c r="C4" s="6">
         <v>63135106</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1814,22 +1862,30 @@
       <c r="C5" s="6">
         <v>63131606</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1841,22 +1897,30 @@
       <c r="C6" s="6">
         <v>63135096</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="11"/>
+      <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1868,22 +1932,30 @@
       <c r="C7" s="6">
         <v>63131263</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="11"/>
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1895,22 +1967,30 @@
       <c r="C8" s="6">
         <v>63131821</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1922,22 +2002,30 @@
       <c r="C9" s="6">
         <v>63135054</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="11"/>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1949,22 +2037,30 @@
       <c r="C10" s="6">
         <v>63132195</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
+      <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1976,22 +2072,30 @@
       <c r="C11" s="6">
         <v>63131717</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="11"/>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -2003,22 +2107,30 @@
       <c r="C12" s="6">
         <v>63135429</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -2030,28 +2142,39 @@
       <c r="C13" s="6">
         <v>63133615</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="11"/>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2062,7 +2185,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2121,243 +2244,265 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>63131214</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
         <f>AVERAGE(D3:G3)</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>63135106</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H13" si="0">AVERAGE(D4:G4)</f>
-        <v>10</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>63131606</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>63135096</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>9.5</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>9.75</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>63131263</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>63131821</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>9</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>9.5</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>9.25</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>63135054</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>9</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>63132195</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>9.5</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>9.75</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>63131717</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>9</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>63135429</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>9.5</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>63133615</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>9.5</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>9.75</v>
+      </c>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C7518-8C30-4DD4-B9DA-6BE19721D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83AECD-A927-4B36-AD74-11C9FD5F7904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -614,37 +614,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.75</c:v>
+                  <c:v>9.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.25</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75</c:v>
+                  <c:v>9.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5</c:v>
+                  <c:v>9.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.75</c:v>
+                  <c:v>8.1666666666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,27 +1712,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="38.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2184,21 +2184,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC11636-CB96-413D-B668-DA0292D37334}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2256,15 +2256,17 @@
       <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
         <f>AVERAGE(D3:G3)</f>
-        <v>7</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2280,15 +2282,17 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H13" si="0">AVERAGE(D4:G4)</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2304,15 +2308,17 @@
       <c r="E5" s="4">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2328,15 +2334,17 @@
       <c r="E6" s="4">
         <v>9.5</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2352,15 +2360,17 @@
       <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2376,15 +2386,17 @@
       <c r="E8" s="4">
         <v>9.5</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2400,15 +2412,17 @@
       <c r="E9" s="4">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2424,15 +2438,17 @@
       <c r="E10" s="4">
         <v>9.5</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2448,15 +2464,17 @@
       <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2472,15 +2490,17 @@
       <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>9</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2496,11 +2516,13 @@
       <c r="E13" s="4">
         <v>9.5</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>9.75</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="I13" s="9"/>
     </row>

--- a/Bảng đánh giá.xlsx
+++ b/Bảng đánh giá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK1_Nam3\PTTK HTTH\BaoCao_PTTK_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83AECD-A927-4B36-AD74-11C9FD5F7904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1748B1-4717-4912-94AF-E1745D3F2E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{11AB91FE-5801-48BA-AC76-744BF764C06E}"/>
   </bookViews>
@@ -635,7 +635,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1666666666666661</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1D13C-C121-40F7-A551-B7C798406762}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2441,10 +2441,12 @@
       <c r="F10" s="4">
         <v>8</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>-3</v>
+      </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>9.1666666666666661</v>
+        <v>6.125</v>
       </c>
       <c r="I10" s="9"/>
     </row>
